--- a/candidate_pairs_overbought.xlsx
+++ b/candidate_pairs_overbought.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Return_to_trend</t>
+  </si>
+  <si>
+    <t>Trend_adj_peak_trough</t>
+  </si>
+  <si>
+    <t>SD_moves</t>
+  </si>
+  <si>
+    <t>Num_above_trend</t>
+  </si>
+  <si>
+    <t>Num_below_trend</t>
+  </si>
+  <si>
+    <t>Num_above_200MA</t>
+  </si>
+  <si>
+    <t>Num_below_200MA</t>
+  </si>
   <si>
     <t>peaking</t>
   </si>
@@ -22,18 +43,33 @@
     <t>troughing</t>
   </si>
   <si>
+    <t>ALB US Equity_CINR US Equity</t>
+  </si>
+  <si>
     <t>ALB US Equity_CBT US Equity</t>
   </si>
   <si>
+    <t>AI FP Equity_CINR US Equity</t>
+  </si>
+  <si>
     <t>AI FP Equity_HXL US Equity</t>
   </si>
   <si>
     <t>AVD US Equity_ADM US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_AXTA US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_BAS GR Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_CINR US Equity</t>
+  </si>
+  <si>
+    <t>AVD US Equity_IMCD NA Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_DCI US Equity</t>
   </si>
   <si>
@@ -49,6 +85,9 @@
     <t>AVD US Equity_DD US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_DOW US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_ECL US Equity</t>
   </si>
   <si>
@@ -61,6 +100,9 @@
     <t>AVD US Equity_FUL US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_GCP US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_GRA US Equity</t>
   </si>
   <si>
@@ -79,6 +121,9 @@
     <t>AVD US Equity_LIN US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_LYB US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_MMM US Equity</t>
   </si>
   <si>
@@ -88,27 +133,54 @@
     <t>AVD US Equity_NEU US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_OEC US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_PPG US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_PRLB US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_RPM US Equity</t>
   </si>
   <si>
     <t>AVD US Equity_SHW US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_TSE US Equity</t>
+  </si>
+  <si>
+    <t>AVD US Equity_UNVR US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_WDFC US Equity</t>
   </si>
   <si>
+    <t>AVD US Equity_VVV US Equity</t>
+  </si>
+  <si>
     <t>AVD US Equity_WLK US Equity</t>
   </si>
   <si>
+    <t>ADM US Equity_CINR US Equity</t>
+  </si>
+  <si>
     <t>ADM US Equity_HXL US Equity</t>
   </si>
   <si>
+    <t>AXTA US Equity_HXL US Equity</t>
+  </si>
+  <si>
+    <t>CRDA LN Equity_CINR US Equity</t>
+  </si>
+  <si>
     <t>CRDA LN Equity_HXL US Equity</t>
   </si>
   <si>
+    <t>IMCD NA Equity_HXL US Equity</t>
+  </si>
+  <si>
     <t>DCI US Equity_HXL US Equity</t>
   </si>
   <si>
@@ -133,13 +205,7 @@
     <t>AVY US Equity_AVD US Equity</t>
   </si>
   <si>
-    <t>CBT US Equity_POL US Equity</t>
-  </si>
-  <si>
     <t>HXL US Equity_LIN US Equity</t>
-  </si>
-  <si>
-    <t>HXL US Equity_POL US Equity</t>
   </si>
   <si>
     <t>HXL US Equity_PPG US Equity</t>
@@ -506,362 +572,1721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2">
+        <v>-0.08874891913399707</v>
+      </c>
+      <c r="C2">
+        <v>0.00330152528396277</v>
+      </c>
+      <c r="D2">
+        <v>0.1663742880009424</v>
+      </c>
+      <c r="E2">
+        <v>778</v>
+      </c>
+      <c r="F2">
+        <v>866</v>
+      </c>
+      <c r="G2">
+        <v>752</v>
+      </c>
+      <c r="H2">
+        <v>693</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>-0.05560491444516658</v>
+      </c>
+      <c r="C3">
+        <v>-0.009438196849542058</v>
+      </c>
+      <c r="D3">
+        <v>0.08539013863448897</v>
+      </c>
+      <c r="E3">
+        <v>1264</v>
+      </c>
+      <c r="F3">
+        <v>1343</v>
+      </c>
+      <c r="G3">
+        <v>1195</v>
+      </c>
+      <c r="H3">
+        <v>1213</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4">
+        <v>0.1970264023301991</v>
+      </c>
+      <c r="C4">
+        <v>0.02591958438922171</v>
+      </c>
+      <c r="D4">
+        <v>0.4334362817566722</v>
+      </c>
+      <c r="E4">
+        <v>1159</v>
+      </c>
+      <c r="F4">
+        <v>1448</v>
+      </c>
+      <c r="G4">
+        <v>1238</v>
+      </c>
+      <c r="H4">
+        <v>1170</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5">
+        <v>-0.008059026661601409</v>
+      </c>
+      <c r="C5">
+        <v>0.05333218725713507</v>
+      </c>
+      <c r="D5">
+        <v>0.2471533397310902</v>
+      </c>
+      <c r="E5">
+        <v>718</v>
+      </c>
+      <c r="F5">
+        <v>926</v>
+      </c>
+      <c r="G5">
+        <v>790</v>
+      </c>
+      <c r="H5">
+        <v>655</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>-0.2244529164738505</v>
+      </c>
+      <c r="C6">
+        <v>-0.005255372755546328</v>
+      </c>
+      <c r="D6">
+        <v>0.1421243306713775</v>
+      </c>
+      <c r="E6">
+        <v>1979</v>
+      </c>
+      <c r="F6">
+        <v>628</v>
+      </c>
+      <c r="G6">
+        <v>736</v>
+      </c>
+      <c r="H6">
+        <v>1672</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7">
+        <v>0.3458427812271796</v>
+      </c>
+      <c r="C7">
+        <v>0.02408688672410642</v>
+      </c>
+      <c r="D7">
+        <v>0.2113127961572158</v>
+      </c>
+      <c r="E7">
+        <v>1587</v>
+      </c>
+      <c r="F7">
+        <v>1020</v>
+      </c>
+      <c r="G7">
+        <v>1337</v>
+      </c>
+      <c r="H7">
+        <v>1071</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>0.2747312954181598</v>
+      </c>
+      <c r="C8">
+        <v>0.03961116198990111</v>
+      </c>
+      <c r="D8">
+        <v>0.6441685395143031</v>
+      </c>
+      <c r="E8">
+        <v>1073</v>
+      </c>
+      <c r="F8">
+        <v>1534</v>
+      </c>
+      <c r="G8">
+        <v>1224</v>
+      </c>
+      <c r="H8">
+        <v>1184</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9">
+        <v>0.1859563393677091</v>
+      </c>
+      <c r="C9">
+        <v>0.02673804432751692</v>
+      </c>
+      <c r="D9">
+        <v>0.2990858166237607</v>
+      </c>
+      <c r="E9">
+        <v>1139</v>
+      </c>
+      <c r="F9">
+        <v>1468</v>
+      </c>
+      <c r="G9">
+        <v>1474</v>
+      </c>
+      <c r="H9">
+        <v>934</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>-0.2219186057375633</v>
+      </c>
+      <c r="C10">
+        <v>-0.02522298890486352</v>
+      </c>
+      <c r="D10">
+        <v>0.02734069110864332</v>
+      </c>
+      <c r="E10">
+        <v>1383</v>
+      </c>
+      <c r="F10">
+        <v>1224</v>
+      </c>
+      <c r="G10">
+        <v>1218</v>
+      </c>
+      <c r="H10">
+        <v>1190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11">
+        <v>-0.1919395692857752</v>
+      </c>
+      <c r="C11">
+        <v>-0.03493444481540198</v>
+      </c>
+      <c r="D11">
+        <v>0.0354543972484043</v>
+      </c>
+      <c r="E11">
+        <v>305</v>
+      </c>
+      <c r="F11">
+        <v>1036</v>
+      </c>
+      <c r="G11">
+        <v>623</v>
+      </c>
+      <c r="H11">
+        <v>519</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12">
+        <v>-0.1469592196918819</v>
+      </c>
+      <c r="C12">
+        <v>0.005199054872996545</v>
+      </c>
+      <c r="D12">
+        <v>0.01100558520850227</v>
+      </c>
+      <c r="E12">
+        <v>1552</v>
+      </c>
+      <c r="F12">
+        <v>1055</v>
+      </c>
+      <c r="G12">
+        <v>1229</v>
+      </c>
+      <c r="H12">
+        <v>1179</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>-0.2157185655547849</v>
+      </c>
+      <c r="C13">
+        <v>0.0220703156807136</v>
+      </c>
+      <c r="D13">
+        <v>0.03888429764017572</v>
+      </c>
+      <c r="E13">
+        <v>986</v>
+      </c>
+      <c r="F13">
+        <v>658</v>
+      </c>
+      <c r="G13">
+        <v>782</v>
+      </c>
+      <c r="H13">
+        <v>663</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14">
+        <v>-0.252073806401275</v>
+      </c>
+      <c r="C14">
+        <v>-0.02295930310338667</v>
+      </c>
+      <c r="D14">
+        <v>0.01745653271095543</v>
+      </c>
+      <c r="E14">
+        <v>665</v>
+      </c>
+      <c r="F14">
+        <v>774</v>
+      </c>
+      <c r="G14">
+        <v>438</v>
+      </c>
+      <c r="H14">
+        <v>802</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>-0.2369689103480755</v>
+      </c>
+      <c r="C15">
+        <v>-0.0392998580478765</v>
+      </c>
+      <c r="D15">
+        <v>0.02550049791626608</v>
+      </c>
+      <c r="E15">
+        <v>1325</v>
+      </c>
+      <c r="F15">
+        <v>1282</v>
+      </c>
+      <c r="G15">
+        <v>1001</v>
+      </c>
+      <c r="H15">
+        <v>1407</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16">
+        <v>-0.2844439409613807</v>
+      </c>
+      <c r="C16">
+        <v>-0.0551774272968657</v>
+      </c>
+      <c r="D16">
+        <v>0.01731385629355229</v>
+      </c>
+      <c r="E16">
+        <v>1409</v>
+      </c>
+      <c r="F16">
+        <v>1198</v>
+      </c>
+      <c r="G16">
+        <v>898</v>
+      </c>
+      <c r="H16">
+        <v>1510</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17">
+        <v>-0.1628302867782406</v>
+      </c>
+      <c r="C17">
+        <v>-0.000396612129359486</v>
+      </c>
+      <c r="D17">
+        <v>0.02608959752425532</v>
+      </c>
+      <c r="E17">
+        <v>1332</v>
+      </c>
+      <c r="F17">
+        <v>1275</v>
+      </c>
+      <c r="G17">
+        <v>1204</v>
+      </c>
+      <c r="H17">
+        <v>1204</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18">
+        <v>-0.2324105814673647</v>
+      </c>
+      <c r="C18">
+        <v>-0.03273080931282712</v>
+      </c>
+      <c r="D18">
+        <v>0.02345592053054733</v>
+      </c>
+      <c r="E18">
+        <v>1456</v>
+      </c>
+      <c r="F18">
+        <v>1151</v>
+      </c>
+      <c r="G18">
+        <v>899</v>
+      </c>
+      <c r="H18">
+        <v>1509</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>-0.2744743844354931</v>
+      </c>
+      <c r="C19">
+        <v>0.004818062430329118</v>
+      </c>
+      <c r="D19">
+        <v>0.01912270192237536</v>
+      </c>
+      <c r="E19">
+        <v>1356</v>
+      </c>
+      <c r="F19">
+        <v>1251</v>
+      </c>
+      <c r="G19">
+        <v>1158</v>
+      </c>
+      <c r="H19">
+        <v>1250</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20">
+        <v>-0.03904422767788407</v>
+      </c>
+      <c r="C20">
+        <v>0.1097400061591698</v>
+      </c>
+      <c r="D20">
+        <v>0.008157207682908433</v>
+      </c>
+      <c r="E20">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>126</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21">
+        <v>-0.3583508468630251</v>
+      </c>
+      <c r="C21">
+        <v>-0.0732290526032624</v>
+      </c>
+      <c r="D21">
+        <v>0.01243536248546179</v>
+      </c>
+      <c r="E21">
+        <v>1277</v>
+      </c>
+      <c r="F21">
+        <v>1330</v>
+      </c>
+      <c r="G21">
+        <v>1132</v>
+      </c>
+      <c r="H21">
+        <v>1276</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22">
+        <v>-0.2044555339253846</v>
+      </c>
+      <c r="C22">
+        <v>-0.005120603166703597</v>
+      </c>
+      <c r="D22">
+        <v>0.01768303990841584</v>
+      </c>
+      <c r="E22">
+        <v>1428</v>
+      </c>
+      <c r="F22">
+        <v>1179</v>
+      </c>
+      <c r="G22">
+        <v>1123</v>
+      </c>
+      <c r="H22">
+        <v>1285</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23">
+        <v>-0.1503706735697711</v>
+      </c>
+      <c r="C23">
+        <v>-0.03463806270720626</v>
+      </c>
+      <c r="D23">
+        <v>0.0184348342507628</v>
+      </c>
+      <c r="E23">
+        <v>1348</v>
+      </c>
+      <c r="F23">
+        <v>1259</v>
+      </c>
+      <c r="G23">
+        <v>951</v>
+      </c>
+      <c r="H23">
+        <v>1457</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24">
+        <v>-0.189926424580675</v>
+      </c>
+      <c r="C24">
+        <v>-0.01651041158957722</v>
+      </c>
+      <c r="D24">
+        <v>0.02565310856755832</v>
+      </c>
+      <c r="E24">
+        <v>1428</v>
+      </c>
+      <c r="F24">
+        <v>1179</v>
+      </c>
+      <c r="G24">
+        <v>1110</v>
+      </c>
+      <c r="H24">
+        <v>1298</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25">
+        <v>-0.1860481726550072</v>
+      </c>
+      <c r="C25">
+        <v>0.02506438957258483</v>
+      </c>
+      <c r="D25">
+        <v>0.04903955581237954</v>
+      </c>
+      <c r="E25">
+        <v>761</v>
+      </c>
+      <c r="F25">
+        <v>265</v>
+      </c>
+      <c r="G25">
+        <v>447</v>
+      </c>
+      <c r="H25">
+        <v>380</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26">
+        <v>-0.2815029265224883</v>
+      </c>
+      <c r="C26">
+        <v>-0.02688304967356492</v>
+      </c>
+      <c r="D26">
+        <v>0.02236360209419177</v>
+      </c>
+      <c r="E26">
+        <v>1239</v>
+      </c>
+      <c r="F26">
+        <v>1368</v>
+      </c>
+      <c r="G26">
+        <v>1176</v>
+      </c>
+      <c r="H26">
+        <v>1232</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27">
+        <v>-0.2423881914509165</v>
+      </c>
+      <c r="C27">
+        <v>-0.01484382093109693</v>
+      </c>
+      <c r="D27">
+        <v>0.01157746369098295</v>
+      </c>
+      <c r="E27">
+        <v>1217</v>
+      </c>
+      <c r="F27">
+        <v>1390</v>
+      </c>
+      <c r="G27">
+        <v>1122</v>
+      </c>
+      <c r="H27">
+        <v>1286</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28">
+        <v>-0.08926077415836309</v>
+      </c>
+      <c r="C28">
+        <v>0.002253627712887951</v>
+      </c>
+      <c r="D28">
+        <v>0.05974310445558925</v>
+      </c>
+      <c r="E28">
+        <v>1149</v>
+      </c>
+      <c r="F28">
+        <v>1458</v>
+      </c>
+      <c r="G28">
+        <v>1027</v>
+      </c>
+      <c r="H28">
+        <v>1381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29">
+        <v>-0.3857754070867089</v>
+      </c>
+      <c r="C29">
+        <v>-0.05183356063824252</v>
+      </c>
+      <c r="D29">
+        <v>0.02919558955164984</v>
+      </c>
+      <c r="E29">
+        <v>1657</v>
+      </c>
+      <c r="F29">
+        <v>950</v>
+      </c>
+      <c r="G29">
+        <v>965</v>
+      </c>
+      <c r="H29">
+        <v>1443</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30">
+        <v>0.1782125087792206</v>
+      </c>
+      <c r="C30">
+        <v>0.006976369827007556</v>
+      </c>
+      <c r="D30">
+        <v>0.05459235466480538</v>
+      </c>
+      <c r="E30">
+        <v>1260</v>
+      </c>
+      <c r="F30">
+        <v>1347</v>
+      </c>
+      <c r="G30">
+        <v>1194</v>
+      </c>
+      <c r="H30">
+        <v>1214</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31">
+        <v>-0.2758343091199749</v>
+      </c>
+      <c r="C31">
+        <v>-0.058664766661218</v>
+      </c>
+      <c r="D31">
+        <v>0.007368618104997532</v>
+      </c>
+      <c r="E31">
+        <v>1312</v>
+      </c>
+      <c r="F31">
+        <v>1295</v>
+      </c>
+      <c r="G31">
+        <v>1107</v>
+      </c>
+      <c r="H31">
+        <v>1301</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32">
+        <v>-0.2554911519387774</v>
+      </c>
+      <c r="C32">
+        <v>-0.009535174257918055</v>
+      </c>
+      <c r="D32">
+        <v>0.02337734536049891</v>
+      </c>
+      <c r="E32">
+        <v>2051</v>
+      </c>
+      <c r="F32">
+        <v>474</v>
+      </c>
+      <c r="G32">
+        <v>1156</v>
+      </c>
+      <c r="H32">
+        <v>1170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33">
+        <v>-0.2104792334737722</v>
+      </c>
+      <c r="C33">
+        <v>-0.003853748274352142</v>
+      </c>
+      <c r="D33">
+        <v>0.0077045029324097</v>
+      </c>
+      <c r="E33">
+        <v>1257</v>
+      </c>
+      <c r="F33">
+        <v>1350</v>
+      </c>
+      <c r="G33">
+        <v>1175</v>
+      </c>
+      <c r="H33">
+        <v>1233</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34">
+        <v>-0.191681079875871</v>
+      </c>
+      <c r="C34">
+        <v>-0.01250246254945342</v>
+      </c>
+      <c r="D34">
+        <v>0.02690903649366479</v>
+      </c>
+      <c r="E34">
+        <v>1304</v>
+      </c>
+      <c r="F34">
+        <v>1303</v>
+      </c>
+      <c r="G34">
+        <v>1084</v>
+      </c>
+      <c r="H34">
+        <v>1324</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35">
+        <v>-0.2870494162140198</v>
+      </c>
+      <c r="C35">
+        <v>-0.04301751017137467</v>
+      </c>
+      <c r="D35">
+        <v>0.004483108596908816</v>
+      </c>
+      <c r="E35">
+        <v>1712</v>
+      </c>
+      <c r="F35">
+        <v>895</v>
+      </c>
+      <c r="G35">
+        <v>1078</v>
+      </c>
+      <c r="H35">
+        <v>1330</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36">
+        <v>-0.07248977445499705</v>
+      </c>
+      <c r="C36">
+        <v>0.03133226317930093</v>
+      </c>
+      <c r="D36">
+        <v>0.05053655001398723</v>
+      </c>
+      <c r="E36">
+        <v>658</v>
+      </c>
+      <c r="F36">
+        <v>760</v>
+      </c>
+      <c r="G36">
+        <v>583</v>
+      </c>
+      <c r="H36">
+        <v>636</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37">
+        <v>-0.1702077202421152</v>
+      </c>
+      <c r="C37">
+        <v>-0.03350421083030686</v>
+      </c>
+      <c r="D37">
+        <v>0.01441547901701956</v>
+      </c>
+      <c r="E37">
+        <v>1234</v>
+      </c>
+      <c r="F37">
+        <v>1373</v>
+      </c>
+      <c r="G37">
+        <v>1080</v>
+      </c>
+      <c r="H37">
+        <v>1328</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38">
+        <v>0.1476039859025406</v>
+      </c>
+      <c r="C38">
+        <v>-0.005844153955555487</v>
+      </c>
+      <c r="D38">
+        <v>0.0345436321648251</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="F38">
+        <v>2005</v>
+      </c>
+      <c r="G38">
+        <v>592</v>
+      </c>
+      <c r="H38">
+        <v>1258</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39">
+        <v>-0.2758195151153208</v>
+      </c>
+      <c r="C39">
+        <v>-0.06498287508022582</v>
+      </c>
+      <c r="D39">
+        <v>0.02876854092251841</v>
+      </c>
+      <c r="E39">
+        <v>1343</v>
+      </c>
+      <c r="F39">
+        <v>1264</v>
+      </c>
+      <c r="G39">
+        <v>1127</v>
+      </c>
+      <c r="H39">
+        <v>1281</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40">
+        <v>-0.1937613214970528</v>
+      </c>
+      <c r="C40">
+        <v>-0.05447470197335269</v>
+      </c>
+      <c r="D40">
+        <v>0.005945045939222488</v>
+      </c>
+      <c r="E40">
+        <v>1121</v>
+      </c>
+      <c r="F40">
+        <v>1486</v>
+      </c>
+      <c r="G40">
+        <v>966</v>
+      </c>
+      <c r="H40">
+        <v>1442</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41">
+        <v>-0.1759144909280573</v>
+      </c>
+      <c r="C41">
+        <v>0.03438423798095158</v>
+      </c>
+      <c r="D41">
+        <v>0.02827516040588088</v>
+      </c>
+      <c r="E41">
+        <v>503</v>
+      </c>
+      <c r="F41">
+        <v>947</v>
+      </c>
+      <c r="G41">
+        <v>485</v>
+      </c>
+      <c r="H41">
+        <v>766</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42">
+        <v>-0.1287948243113849</v>
+      </c>
+      <c r="C42">
+        <v>-0.01334398696812289</v>
+      </c>
+      <c r="D42">
+        <v>0.04077210289089564</v>
+      </c>
+      <c r="E42">
+        <v>446</v>
+      </c>
+      <c r="F42">
+        <v>739</v>
+      </c>
+      <c r="G42">
+        <v>443</v>
+      </c>
+      <c r="H42">
+        <v>543</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43">
+        <v>-0.3767260744899088</v>
+      </c>
+      <c r="C43">
+        <v>-0.08001250301555318</v>
+      </c>
+      <c r="D43">
+        <v>0.01421403592921627</v>
+      </c>
+      <c r="E43">
+        <v>1259</v>
+      </c>
+      <c r="F43">
+        <v>1348</v>
+      </c>
+      <c r="G43">
+        <v>1006</v>
+      </c>
+      <c r="H43">
+        <v>1402</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44">
+        <v>-0.2669760884357995</v>
+      </c>
+      <c r="C44">
+        <v>-0.03082952730879529</v>
+      </c>
+      <c r="D44">
+        <v>0.04635960710937447</v>
+      </c>
+      <c r="E44">
+        <v>378</v>
+      </c>
+      <c r="F44">
+        <v>476</v>
+      </c>
+      <c r="G44">
+        <v>320</v>
+      </c>
+      <c r="H44">
+        <v>335</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-0.2358884915753234</v>
+      </c>
+      <c r="C45">
+        <v>0.004746250083047743</v>
+      </c>
+      <c r="D45">
+        <v>0.04015844948735302</v>
+      </c>
+      <c r="E45">
+        <v>1773</v>
+      </c>
+      <c r="F45">
+        <v>834</v>
+      </c>
+      <c r="G45">
+        <v>1140</v>
+      </c>
+      <c r="H45">
+        <v>1268</v>
+      </c>
+      <c r="I45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
         <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-0.08923883614536487</v>
+      </c>
+      <c r="C46">
+        <v>0.0269214138608922</v>
+      </c>
+      <c r="D46">
+        <v>0.0739183432649997</v>
+      </c>
+      <c r="E46">
+        <v>847</v>
+      </c>
+      <c r="F46">
+        <v>797</v>
+      </c>
+      <c r="G46">
+        <v>772</v>
+      </c>
+      <c r="H46">
+        <v>673</v>
+      </c>
+      <c r="I46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-0.2489688214701128</v>
+      </c>
+      <c r="C47">
+        <v>-0.01290493862675646</v>
+      </c>
+      <c r="D47">
+        <v>0.07146907685570714</v>
+      </c>
+      <c r="E47">
+        <v>2131</v>
+      </c>
+      <c r="F47">
+        <v>476</v>
+      </c>
+      <c r="G47">
+        <v>742</v>
+      </c>
+      <c r="H47">
+        <v>1666</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-0.1934741014746596</v>
+      </c>
+      <c r="C48">
+        <v>-0.00911374217164107</v>
+      </c>
+      <c r="D48">
+        <v>0.02353100939484354</v>
+      </c>
+      <c r="E48">
+        <v>1057</v>
+      </c>
+      <c r="F48">
+        <v>284</v>
+      </c>
+      <c r="G48">
+        <v>330</v>
+      </c>
+      <c r="H48">
+        <v>812</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-0.03426087214425821</v>
+      </c>
+      <c r="C49">
+        <v>0.008904729111691045</v>
+      </c>
+      <c r="D49">
+        <v>0.09338311098993228</v>
+      </c>
+      <c r="E49">
+        <v>715</v>
+      </c>
+      <c r="F49">
+        <v>929</v>
+      </c>
+      <c r="G49">
+        <v>978</v>
+      </c>
+      <c r="H49">
+        <v>467</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-0.1144666510803342</v>
+      </c>
+      <c r="C50">
+        <v>-0.01210989363586434</v>
+      </c>
+      <c r="D50">
+        <v>0.04959729080781687</v>
+      </c>
+      <c r="E50">
+        <v>1306</v>
+      </c>
+      <c r="F50">
+        <v>1301</v>
+      </c>
+      <c r="G50">
+        <v>1159</v>
+      </c>
+      <c r="H50">
+        <v>1249</v>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-0.156531751383272</v>
+      </c>
+      <c r="C51">
+        <v>-0.01272500167735224</v>
+      </c>
+      <c r="D51">
+        <v>0.0375372085817366</v>
+      </c>
+      <c r="E51">
+        <v>850</v>
+      </c>
+      <c r="F51">
+        <v>589</v>
+      </c>
+      <c r="G51">
+        <v>800</v>
+      </c>
+      <c r="H51">
+        <v>440</v>
+      </c>
+      <c r="I51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-0.1879366903241881</v>
+      </c>
+      <c r="C52">
+        <v>-0.00456792065631817</v>
+      </c>
+      <c r="D52">
+        <v>0.0464542369731013</v>
+      </c>
+      <c r="E52">
+        <v>1851</v>
+      </c>
+      <c r="F52">
+        <v>756</v>
+      </c>
+      <c r="G52">
+        <v>995</v>
+      </c>
+      <c r="H52">
+        <v>1413</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-0.1592863915693979</v>
+      </c>
+      <c r="C53">
+        <v>0.001472945413549143</v>
+      </c>
+      <c r="D53">
+        <v>0.0946451824566289</v>
+      </c>
+      <c r="E53">
+        <v>2032</v>
+      </c>
+      <c r="F53">
+        <v>575</v>
+      </c>
+      <c r="G53">
+        <v>1142</v>
+      </c>
+      <c r="H53">
+        <v>1266</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-0.0500250329687576</v>
+      </c>
+      <c r="C54">
+        <v>0.004726595427057445</v>
+      </c>
+      <c r="D54">
+        <v>0.09489761890137906</v>
+      </c>
+      <c r="E54">
+        <v>1815</v>
+      </c>
+      <c r="F54">
+        <v>792</v>
+      </c>
+      <c r="G54">
+        <v>1102</v>
+      </c>
+      <c r="H54">
+        <v>1306</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-0.2241368073745843</v>
+      </c>
+      <c r="C55">
+        <v>-0.01836034712971668</v>
+      </c>
+      <c r="D55">
+        <v>0.04091245064703838</v>
+      </c>
+      <c r="E55">
+        <v>1734</v>
+      </c>
+      <c r="F55">
+        <v>873</v>
+      </c>
+      <c r="G55">
+        <v>845</v>
+      </c>
+      <c r="H55">
+        <v>1563</v>
+      </c>
+      <c r="I55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.1453903179885201</v>
+      </c>
+      <c r="C56">
+        <v>-0.003090855698935635</v>
+      </c>
+      <c r="D56">
+        <v>0.01088763376456498</v>
+      </c>
+      <c r="E56">
+        <v>1164</v>
+      </c>
+      <c r="F56">
+        <v>1443</v>
+      </c>
+      <c r="G56">
+        <v>1392</v>
+      </c>
+      <c r="H56">
+        <v>1016</v>
+      </c>
+      <c r="J56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.2246512412418205</v>
+      </c>
+      <c r="C57">
+        <v>0.008853938603856193</v>
+      </c>
+      <c r="D57">
+        <v>0.01982624599374888</v>
+      </c>
+      <c r="E57">
+        <v>1052</v>
+      </c>
+      <c r="F57">
+        <v>1555</v>
+      </c>
+      <c r="G57">
+        <v>1311</v>
+      </c>
+      <c r="H57">
+        <v>1097</v>
+      </c>
+      <c r="J57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.1893184911017838</v>
+      </c>
+      <c r="C58">
+        <v>-0.004732873925984094</v>
+      </c>
+      <c r="D58">
+        <v>0.05044306845115561</v>
+      </c>
+      <c r="E58">
+        <v>1155</v>
+      </c>
+      <c r="F58">
+        <v>1452</v>
+      </c>
+      <c r="G58">
+        <v>1321</v>
+      </c>
+      <c r="H58">
+        <v>1087</v>
+      </c>
+      <c r="J58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.2295351620501409</v>
+      </c>
+      <c r="C59">
+        <v>0.01805383563289253</v>
+      </c>
+      <c r="D59">
+        <v>0.02309566898337439</v>
+      </c>
+      <c r="E59">
+        <v>1316</v>
+      </c>
+      <c r="F59">
+        <v>1291</v>
+      </c>
+      <c r="G59">
+        <v>1545</v>
+      </c>
+      <c r="H59">
+        <v>863</v>
+      </c>
+      <c r="J59" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/candidate_pairs_overbought.xlsx
+++ b/candidate_pairs_overbought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Return_to_trend</t>
   </si>
@@ -205,7 +205,13 @@
     <t>AVY US Equity_AVD US Equity</t>
   </si>
   <si>
+    <t>CBT US Equity_POL US Equity</t>
+  </si>
+  <si>
     <t>HXL US Equity_LIN US Equity</t>
+  </si>
+  <si>
+    <t>HXL US Equity_POL US Equity</t>
   </si>
   <si>
     <t>HXL US Equity_PPG US Equity</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,19 +618,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.08874891913399707</v>
+        <v>0.03816223951913833</v>
       </c>
       <c r="C2">
-        <v>0.00330152528396277</v>
+        <v>0.005706788595714274</v>
       </c>
       <c r="D2">
-        <v>0.1663742880009424</v>
+        <v>0.4603888076369064</v>
       </c>
       <c r="E2">
-        <v>778</v>
+        <v>408</v>
       </c>
       <c r="F2">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="G2">
         <v>752</v>
@@ -641,22 +647,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.05560491444516658</v>
+        <v>0.1962950046862848</v>
       </c>
       <c r="C3">
-        <v>-0.009438196849542058</v>
+        <v>0.002397393255829661</v>
       </c>
       <c r="D3">
-        <v>0.08539013863448897</v>
+        <v>0.1696479322062048</v>
       </c>
       <c r="E3">
-        <v>1264</v>
+        <v>554</v>
       </c>
       <c r="F3">
-        <v>1343</v>
+        <v>750</v>
       </c>
       <c r="G3">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H3">
         <v>1213</v>
@@ -670,22 +676,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1970264023301991</v>
+        <v>-0.1102038653647273</v>
       </c>
       <c r="C4">
-        <v>0.02591958438922171</v>
+        <v>-0.001058206357413716</v>
       </c>
       <c r="D4">
-        <v>0.4334362817566722</v>
+        <v>0.72149012486797</v>
       </c>
       <c r="E4">
-        <v>1159</v>
+        <v>523</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>781</v>
       </c>
       <c r="G4">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H4">
         <v>1170</v>
@@ -699,19 +705,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.008059026661601409</v>
+        <v>-0.2893718208605331</v>
       </c>
       <c r="C5">
-        <v>0.05333218725713507</v>
+        <v>0.01226109549120191</v>
       </c>
       <c r="D5">
-        <v>0.2471533397310902</v>
+        <v>0.5162236589715865</v>
       </c>
       <c r="E5">
-        <v>718</v>
+        <v>499</v>
       </c>
       <c r="F5">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="G5">
         <v>790</v>
@@ -728,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2244529164738505</v>
+        <v>-0.1791224894238869</v>
       </c>
       <c r="C6">
-        <v>-0.005255372755546328</v>
+        <v>-0.005022278932140356</v>
       </c>
       <c r="D6">
-        <v>0.1421243306713775</v>
+        <v>0.06774009136924396</v>
       </c>
       <c r="E6">
-        <v>1979</v>
+        <v>656</v>
       </c>
       <c r="F6">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="G6">
         <v>736</v>
       </c>
       <c r="H6">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -757,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3458427812271796</v>
+        <v>0.08833734460097675</v>
       </c>
       <c r="C7">
-        <v>0.02408688672410642</v>
+        <v>0.002282435514504133</v>
       </c>
       <c r="D7">
-        <v>0.2113127961572158</v>
+        <v>0.4202462126203527</v>
       </c>
       <c r="E7">
-        <v>1587</v>
+        <v>581</v>
       </c>
       <c r="F7">
-        <v>1020</v>
+        <v>723</v>
       </c>
       <c r="G7">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H7">
         <v>1071</v>
@@ -786,22 +792,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2747312954181598</v>
+        <v>-0.08614101638564375</v>
       </c>
       <c r="C8">
-        <v>0.03961116198990111</v>
+        <v>0.006167988539737657</v>
       </c>
       <c r="D8">
-        <v>0.6441685395143031</v>
+        <v>1.368546857399685</v>
       </c>
       <c r="E8">
-        <v>1073</v>
+        <v>497</v>
       </c>
       <c r="F8">
-        <v>1534</v>
+        <v>807</v>
       </c>
       <c r="G8">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H8">
         <v>1184</v>
@@ -815,22 +821,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1859563393677091</v>
+        <v>0.01386473180607162</v>
       </c>
       <c r="C9">
-        <v>0.02673804432751692</v>
+        <v>0.01115909690530437</v>
       </c>
       <c r="D9">
-        <v>0.2990858166237607</v>
+        <v>0.4869103089271438</v>
       </c>
       <c r="E9">
-        <v>1139</v>
+        <v>588</v>
       </c>
       <c r="F9">
-        <v>1468</v>
+        <v>716</v>
       </c>
       <c r="G9">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H9">
         <v>934</v>
@@ -844,25 +850,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2219186057375633</v>
+        <v>0.06614079833792563</v>
       </c>
       <c r="C10">
-        <v>-0.02522298890486352</v>
+        <v>0.006265813580010215</v>
       </c>
       <c r="D10">
-        <v>0.02734069110864332</v>
+        <v>0.0339659356398244</v>
       </c>
       <c r="E10">
-        <v>1383</v>
+        <v>612</v>
       </c>
       <c r="F10">
-        <v>1224</v>
+        <v>692</v>
       </c>
       <c r="G10">
         <v>1218</v>
       </c>
       <c r="H10">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -873,19 +879,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1919395692857752</v>
+        <v>0.04764228887190058</v>
       </c>
       <c r="C11">
-        <v>-0.03493444481540198</v>
+        <v>0.006562950339515261</v>
       </c>
       <c r="D11">
-        <v>0.0354543972484043</v>
+        <v>0.05135530613582681</v>
       </c>
       <c r="E11">
-        <v>305</v>
+        <v>707</v>
       </c>
       <c r="F11">
-        <v>1036</v>
+        <v>597</v>
       </c>
       <c r="G11">
         <v>623</v>
@@ -902,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1469592196918819</v>
+        <v>-0.09830159397202665</v>
       </c>
       <c r="C12">
-        <v>0.005199054872996545</v>
+        <v>0.007632346204695217</v>
       </c>
       <c r="D12">
-        <v>0.01100558520850227</v>
+        <v>0.01206840221748883</v>
       </c>
       <c r="E12">
-        <v>1552</v>
+        <v>640</v>
       </c>
       <c r="F12">
-        <v>1055</v>
+        <v>664</v>
       </c>
       <c r="G12">
         <v>1229</v>
       </c>
       <c r="H12">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -931,19 +937,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2157185655547849</v>
+        <v>-0.2288232786991248</v>
       </c>
       <c r="C13">
-        <v>0.0220703156807136</v>
+        <v>0.009695302544658224</v>
       </c>
       <c r="D13">
-        <v>0.03888429764017572</v>
+        <v>0.0495051194706272</v>
       </c>
       <c r="E13">
-        <v>986</v>
+        <v>583</v>
       </c>
       <c r="F13">
-        <v>658</v>
+        <v>721</v>
       </c>
       <c r="G13">
         <v>782</v>
@@ -960,19 +966,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.252073806401275</v>
+        <v>-0.0168960073888057</v>
       </c>
       <c r="C14">
-        <v>-0.02295930310338667</v>
+        <v>-0.009965754992696474</v>
       </c>
       <c r="D14">
-        <v>0.01745653271095543</v>
+        <v>0.02816644030263519</v>
       </c>
       <c r="E14">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="F14">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="G14">
         <v>438</v>
@@ -989,25 +995,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2369689103480755</v>
+        <v>0.04058718068102718</v>
       </c>
       <c r="C15">
-        <v>-0.0392998580478765</v>
+        <v>-0.004665422293643084</v>
       </c>
       <c r="D15">
-        <v>0.02550049791626608</v>
+        <v>0.03701763287162237</v>
       </c>
       <c r="E15">
-        <v>1325</v>
+        <v>640</v>
       </c>
       <c r="F15">
-        <v>1282</v>
+        <v>664</v>
       </c>
       <c r="G15">
         <v>1001</v>
       </c>
       <c r="H15">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1018,25 +1024,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2844439409613807</v>
+        <v>0.04676129608862167</v>
       </c>
       <c r="C16">
-        <v>-0.0551774272968657</v>
+        <v>-0.01594678751257761</v>
       </c>
       <c r="D16">
-        <v>0.01731385629355229</v>
+        <v>0.02224192401974126</v>
       </c>
       <c r="E16">
-        <v>1409</v>
+        <v>729</v>
       </c>
       <c r="F16">
-        <v>1198</v>
+        <v>575</v>
       </c>
       <c r="G16">
         <v>898</v>
       </c>
       <c r="H16">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
@@ -1047,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1628302867782406</v>
+        <v>-0.1262673089474124</v>
       </c>
       <c r="C17">
-        <v>-0.000396612129359486</v>
+        <v>0.00308434225887888</v>
       </c>
       <c r="D17">
-        <v>0.02608959752425532</v>
+        <v>0.01971033593957043</v>
       </c>
       <c r="E17">
-        <v>1332</v>
+        <v>629</v>
       </c>
       <c r="F17">
-        <v>1275</v>
+        <v>675</v>
       </c>
       <c r="G17">
         <v>1204</v>
       </c>
       <c r="H17">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -1076,25 +1082,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2324105814673647</v>
+        <v>-0.02126142153227906</v>
       </c>
       <c r="C18">
-        <v>-0.03273080931282712</v>
+        <v>-0.009701428956883085</v>
       </c>
       <c r="D18">
-        <v>0.02345592053054733</v>
+        <v>0.01428068362350381</v>
       </c>
       <c r="E18">
-        <v>1456</v>
+        <v>657</v>
       </c>
       <c r="F18">
-        <v>1151</v>
+        <v>647</v>
       </c>
       <c r="G18">
         <v>899</v>
       </c>
       <c r="H18">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1105,25 +1111,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2744743844354931</v>
+        <v>-0.2517129646993059</v>
       </c>
       <c r="C19">
-        <v>0.004818062430329118</v>
+        <v>0.005972534005781016</v>
       </c>
       <c r="D19">
-        <v>0.01912270192237536</v>
+        <v>0.01082386483981805</v>
       </c>
       <c r="E19">
-        <v>1356</v>
+        <v>583</v>
       </c>
       <c r="F19">
-        <v>1251</v>
+        <v>721</v>
       </c>
       <c r="G19">
         <v>1158</v>
       </c>
       <c r="H19">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -1134,19 +1140,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.03904422767788407</v>
+        <v>-0.1202620371574051</v>
       </c>
       <c r="C20">
-        <v>0.1097400061591698</v>
+        <v>0.006636609013132455</v>
       </c>
       <c r="D20">
-        <v>0.008157207682908433</v>
+        <v>0.01387790709337839</v>
       </c>
       <c r="E20">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F20">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1163,25 +1169,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.3583508468630251</v>
+        <v>0.1108204848441618</v>
       </c>
       <c r="C21">
-        <v>-0.0732290526032624</v>
+        <v>-0.004127778065523446</v>
       </c>
       <c r="D21">
-        <v>0.01243536248546179</v>
+        <v>0.01346231592237077</v>
       </c>
       <c r="E21">
-        <v>1277</v>
+        <v>632</v>
       </c>
       <c r="F21">
-        <v>1330</v>
+        <v>672</v>
       </c>
       <c r="G21">
         <v>1132</v>
       </c>
       <c r="H21">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
@@ -1192,25 +1198,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.2044555339253846</v>
+        <v>-0.09384222836719225</v>
       </c>
       <c r="C22">
-        <v>-0.005120603166703597</v>
+        <v>0.003281269931679098</v>
       </c>
       <c r="D22">
-        <v>0.01768303990841584</v>
+        <v>0.01448597695559319</v>
       </c>
       <c r="E22">
-        <v>1428</v>
+        <v>633</v>
       </c>
       <c r="F22">
-        <v>1179</v>
+        <v>671</v>
       </c>
       <c r="G22">
         <v>1123</v>
       </c>
       <c r="H22">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1221,25 +1227,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.1503706735697711</v>
+        <v>0.06229374138390553</v>
       </c>
       <c r="C23">
-        <v>-0.03463806270720626</v>
+        <v>-0.0150605951347782</v>
       </c>
       <c r="D23">
-        <v>0.0184348342507628</v>
+        <v>0.03992897659002247</v>
       </c>
       <c r="E23">
-        <v>1348</v>
+        <v>659</v>
       </c>
       <c r="F23">
-        <v>1259</v>
+        <v>645</v>
       </c>
       <c r="G23">
         <v>951</v>
       </c>
       <c r="H23">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
@@ -1250,25 +1256,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.189926424580675</v>
+        <v>-0.02269950403380039</v>
       </c>
       <c r="C24">
-        <v>-0.01651041158957722</v>
+        <v>0.002328271707850327</v>
       </c>
       <c r="D24">
-        <v>0.02565310856755832</v>
+        <v>0.02393637397455116</v>
       </c>
       <c r="E24">
-        <v>1428</v>
+        <v>661</v>
       </c>
       <c r="F24">
-        <v>1179</v>
+        <v>643</v>
       </c>
       <c r="G24">
         <v>1110</v>
       </c>
       <c r="H24">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
@@ -1279,19 +1285,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.1860481726550072</v>
+        <v>-0.1878788166199025</v>
       </c>
       <c r="C25">
-        <v>0.02506438957258483</v>
+        <v>0.003058109627089634</v>
       </c>
       <c r="D25">
-        <v>0.04903955581237954</v>
+        <v>0.04880065627298124</v>
       </c>
       <c r="E25">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="F25">
-        <v>265</v>
+        <v>579</v>
       </c>
       <c r="G25">
         <v>447</v>
@@ -1308,25 +1314,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2815029265224883</v>
+        <v>0.0046436602133344</v>
       </c>
       <c r="C26">
-        <v>-0.02688304967356492</v>
+        <v>0.00779186612164029</v>
       </c>
       <c r="D26">
-        <v>0.02236360209419177</v>
+        <v>0.0238366028293344</v>
       </c>
       <c r="E26">
-        <v>1239</v>
+        <v>623</v>
       </c>
       <c r="F26">
-        <v>1368</v>
+        <v>681</v>
       </c>
       <c r="G26">
         <v>1176</v>
       </c>
       <c r="H26">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="I26" t="s">
         <v>29</v>
@@ -1337,25 +1343,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.2423881914509165</v>
+        <v>-0.0813744242963016</v>
       </c>
       <c r="C27">
-        <v>-0.01484382093109693</v>
+        <v>0.00288188710700199</v>
       </c>
       <c r="D27">
-        <v>0.01157746369098295</v>
+        <v>0.01215262093278261</v>
       </c>
       <c r="E27">
-        <v>1217</v>
+        <v>587</v>
       </c>
       <c r="F27">
-        <v>1390</v>
+        <v>717</v>
       </c>
       <c r="G27">
         <v>1122</v>
       </c>
       <c r="H27">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="I27" t="s">
         <v>30</v>
@@ -1366,25 +1372,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.08926077415836309</v>
+        <v>-0.1277347393047448</v>
       </c>
       <c r="C28">
-        <v>0.002253627712887951</v>
+        <v>-0.005468922083822436</v>
       </c>
       <c r="D28">
-        <v>0.05974310445558925</v>
+        <v>0.1321521245122568</v>
       </c>
       <c r="E28">
-        <v>1149</v>
+        <v>584</v>
       </c>
       <c r="F28">
-        <v>1458</v>
+        <v>720</v>
       </c>
       <c r="G28">
         <v>1027</v>
       </c>
       <c r="H28">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I28" t="s">
         <v>31</v>
@@ -1395,25 +1401,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3857754070867089</v>
+        <v>-0.01881210072338735</v>
       </c>
       <c r="C29">
-        <v>-0.05183356063824252</v>
+        <v>-0.005349635170707301</v>
       </c>
       <c r="D29">
-        <v>0.02919558955164984</v>
+        <v>0.0295283505090411</v>
       </c>
       <c r="E29">
-        <v>1657</v>
+        <v>711</v>
       </c>
       <c r="F29">
-        <v>950</v>
+        <v>593</v>
       </c>
       <c r="G29">
         <v>965</v>
       </c>
       <c r="H29">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -1424,25 +1430,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1782125087792206</v>
+        <v>0.06396423374118054</v>
       </c>
       <c r="C30">
-        <v>0.006976369827007556</v>
+        <v>-0.0007938215469115439</v>
       </c>
       <c r="D30">
-        <v>0.05459235466480538</v>
+        <v>0.07454582793185634</v>
       </c>
       <c r="E30">
-        <v>1260</v>
+        <v>502</v>
       </c>
       <c r="F30">
-        <v>1347</v>
+        <v>802</v>
       </c>
       <c r="G30">
         <v>1194</v>
       </c>
       <c r="H30">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -1453,25 +1459,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2758343091199749</v>
+        <v>0.1622108468365961</v>
       </c>
       <c r="C31">
-        <v>-0.058664766661218</v>
+        <v>-0.005231060483790961</v>
       </c>
       <c r="D31">
-        <v>0.007368618104997532</v>
+        <v>0.0122255863725198</v>
       </c>
       <c r="E31">
-        <v>1312</v>
+        <v>705</v>
       </c>
       <c r="F31">
-        <v>1295</v>
+        <v>599</v>
       </c>
       <c r="G31">
         <v>1107</v>
       </c>
       <c r="H31">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I31" t="s">
         <v>34</v>
@@ -1482,19 +1488,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2554911519387774</v>
+        <v>-0.01182962228869533</v>
       </c>
       <c r="C32">
-        <v>-0.009535174257918055</v>
+        <v>0.004869429360998545</v>
       </c>
       <c r="D32">
-        <v>0.02337734536049891</v>
+        <v>0.01390432906132748</v>
       </c>
       <c r="E32">
-        <v>2051</v>
+        <v>583</v>
       </c>
       <c r="F32">
-        <v>474</v>
+        <v>721</v>
       </c>
       <c r="G32">
         <v>1156</v>
@@ -1511,25 +1517,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.2104792334737722</v>
+        <v>-0.1435038081531846</v>
       </c>
       <c r="C33">
-        <v>-0.003853748274352142</v>
+        <v>0.0025277971731541</v>
       </c>
       <c r="D33">
-        <v>0.0077045029324097</v>
+        <v>0.005677070886054307</v>
       </c>
       <c r="E33">
-        <v>1257</v>
+        <v>609</v>
       </c>
       <c r="F33">
-        <v>1350</v>
+        <v>695</v>
       </c>
       <c r="G33">
         <v>1175</v>
       </c>
       <c r="H33">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
@@ -1540,25 +1546,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.191681079875871</v>
+        <v>0.005230150930100264</v>
       </c>
       <c r="C34">
-        <v>-0.01250246254945342</v>
+        <v>0.004786082850642526</v>
       </c>
       <c r="D34">
-        <v>0.02690903649366479</v>
+        <v>0.03839924480669842</v>
       </c>
       <c r="E34">
-        <v>1304</v>
+        <v>598</v>
       </c>
       <c r="F34">
-        <v>1303</v>
+        <v>706</v>
       </c>
       <c r="G34">
         <v>1084</v>
       </c>
       <c r="H34">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -1569,25 +1575,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2870494162140198</v>
+        <v>0.1395712675510665</v>
       </c>
       <c r="C35">
-        <v>-0.04301751017137467</v>
+        <v>0.005814618446992936</v>
       </c>
       <c r="D35">
-        <v>0.004483108596908816</v>
+        <v>0.004797838696924469</v>
       </c>
       <c r="E35">
-        <v>1712</v>
+        <v>583</v>
       </c>
       <c r="F35">
-        <v>895</v>
+        <v>721</v>
       </c>
       <c r="G35">
         <v>1078</v>
       </c>
       <c r="H35">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
@@ -1598,19 +1604,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.07248977445499705</v>
+        <v>-0.2167644904995195</v>
       </c>
       <c r="C36">
-        <v>0.03133226317930093</v>
+        <v>-0.002012203588623751</v>
       </c>
       <c r="D36">
-        <v>0.05053655001398723</v>
+        <v>0.08912389304989515</v>
       </c>
       <c r="E36">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="F36">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="G36">
         <v>583</v>
@@ -1627,25 +1633,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1702077202421152</v>
+        <v>0.1735576088160105</v>
       </c>
       <c r="C37">
-        <v>-0.03350421083030686</v>
+        <v>0.004798596564365543</v>
       </c>
       <c r="D37">
-        <v>0.01441547901701956</v>
+        <v>0.01698331064492154</v>
       </c>
       <c r="E37">
-        <v>1234</v>
+        <v>664</v>
       </c>
       <c r="F37">
-        <v>1373</v>
+        <v>640</v>
       </c>
       <c r="G37">
         <v>1080</v>
       </c>
       <c r="H37">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -1656,19 +1662,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1476039859025406</v>
+        <v>-0.1247476419288321</v>
       </c>
       <c r="C38">
-        <v>-0.005844153955555487</v>
+        <v>-0.01007666768641635</v>
       </c>
       <c r="D38">
-        <v>0.0345436321648251</v>
+        <v>0.03350250553855097</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="F38">
-        <v>2005</v>
+        <v>868</v>
       </c>
       <c r="G38">
         <v>592</v>
@@ -1685,25 +1691,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2758195151153208</v>
+        <v>0.2241411911575006</v>
       </c>
       <c r="C39">
-        <v>-0.06498287508022582</v>
+        <v>0.0001509903550658276</v>
       </c>
       <c r="D39">
-        <v>0.02876854092251841</v>
+        <v>0.03994995511622357</v>
       </c>
       <c r="E39">
-        <v>1343</v>
+        <v>625</v>
       </c>
       <c r="F39">
-        <v>1264</v>
+        <v>679</v>
       </c>
       <c r="G39">
         <v>1127</v>
       </c>
       <c r="H39">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I39" t="s">
         <v>42</v>
@@ -1714,25 +1720,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.1937613214970528</v>
+        <v>0.1849806090513459</v>
       </c>
       <c r="C40">
-        <v>-0.05447470197335269</v>
+        <v>-0.008631376606841323</v>
       </c>
       <c r="D40">
-        <v>0.005945045939222488</v>
+        <v>0.005288584701666238</v>
       </c>
       <c r="E40">
-        <v>1121</v>
+        <v>682</v>
       </c>
       <c r="F40">
-        <v>1486</v>
+        <v>622</v>
       </c>
       <c r="G40">
         <v>966</v>
       </c>
       <c r="H40">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="I40" t="s">
         <v>43</v>
@@ -1743,19 +1749,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1759144909280573</v>
+        <v>-0.4802265739462693</v>
       </c>
       <c r="C41">
-        <v>0.03438423798095158</v>
+        <v>-0.02077412169385895</v>
       </c>
       <c r="D41">
-        <v>0.02827516040588088</v>
+        <v>0.05095635460197994</v>
       </c>
       <c r="E41">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="F41">
-        <v>947</v>
+        <v>707</v>
       </c>
       <c r="G41">
         <v>485</v>
@@ -1772,19 +1778,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1287948243113849</v>
+        <v>-0.094382393282473</v>
       </c>
       <c r="C42">
-        <v>-0.01334398696812289</v>
+        <v>0.0004903505226563354</v>
       </c>
       <c r="D42">
-        <v>0.04077210289089564</v>
+        <v>0.06670388508312587</v>
       </c>
       <c r="E42">
-        <v>446</v>
+        <v>631</v>
       </c>
       <c r="F42">
-        <v>739</v>
+        <v>554</v>
       </c>
       <c r="G42">
         <v>443</v>
@@ -1801,25 +1807,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3767260744899088</v>
+        <v>0.08226413576308222</v>
       </c>
       <c r="C43">
-        <v>-0.08001250301555318</v>
+        <v>-0.01057218849945696</v>
       </c>
       <c r="D43">
-        <v>0.01421403592921627</v>
+        <v>0.01513860508604028</v>
       </c>
       <c r="E43">
-        <v>1259</v>
+        <v>558</v>
       </c>
       <c r="F43">
-        <v>1348</v>
+        <v>746</v>
       </c>
       <c r="G43">
         <v>1006</v>
       </c>
       <c r="H43">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="I43" t="s">
         <v>46</v>
@@ -1830,19 +1836,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2669760884357995</v>
+        <v>-0.09555487622910819</v>
       </c>
       <c r="C44">
-        <v>-0.03082952730879529</v>
+        <v>-0.0008038894603350499</v>
       </c>
       <c r="D44">
-        <v>0.04635960710937447</v>
+        <v>0.0651705133059693</v>
       </c>
       <c r="E44">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="F44">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="G44">
         <v>320</v>
@@ -1859,25 +1865,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2358884915753234</v>
+        <v>-0.1541050413124814</v>
       </c>
       <c r="C45">
-        <v>0.004746250083047743</v>
+        <v>-0.00154804113192053</v>
       </c>
       <c r="D45">
-        <v>0.04015844948735302</v>
+        <v>0.02923006328547544</v>
       </c>
       <c r="E45">
-        <v>1773</v>
+        <v>581</v>
       </c>
       <c r="F45">
-        <v>834</v>
+        <v>723</v>
       </c>
       <c r="G45">
         <v>1140</v>
       </c>
       <c r="H45">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -1888,19 +1894,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.08923883614536487</v>
+        <v>-0.2648502129603207</v>
       </c>
       <c r="C46">
-        <v>0.0269214138608922</v>
+        <v>0.004488406885562179</v>
       </c>
       <c r="D46">
-        <v>0.0739183432649997</v>
+        <v>0.1504868094317276</v>
       </c>
       <c r="E46">
-        <v>847</v>
+        <v>475</v>
       </c>
       <c r="F46">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="G46">
         <v>772</v>
@@ -1917,25 +1923,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.2489688214701128</v>
+        <v>-0.1522064647113875</v>
       </c>
       <c r="C47">
-        <v>-0.01290493862675646</v>
+        <v>-0.01302035881811103</v>
       </c>
       <c r="D47">
-        <v>0.07146907685570714</v>
+        <v>0.0440565866278962</v>
       </c>
       <c r="E47">
-        <v>2131</v>
+        <v>643</v>
       </c>
       <c r="F47">
-        <v>476</v>
+        <v>661</v>
       </c>
       <c r="G47">
         <v>742</v>
       </c>
       <c r="H47">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="I47" t="s">
         <v>50</v>
@@ -1946,19 +1952,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.1934741014746596</v>
+        <v>-0.1237068352599696</v>
       </c>
       <c r="C48">
-        <v>-0.00911374217164107</v>
+        <v>-0.01370353751723619</v>
       </c>
       <c r="D48">
-        <v>0.02353100939484354</v>
+        <v>0.02831621764869633</v>
       </c>
       <c r="E48">
-        <v>1057</v>
+        <v>554</v>
       </c>
       <c r="F48">
-        <v>284</v>
+        <v>750</v>
       </c>
       <c r="G48">
         <v>330</v>
@@ -1975,19 +1981,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.03426087214425821</v>
+        <v>-0.2054356968278096</v>
       </c>
       <c r="C49">
-        <v>0.008904729111691045</v>
+        <v>0.003718052595605981</v>
       </c>
       <c r="D49">
-        <v>0.09338311098993228</v>
+        <v>0.2105607291820612</v>
       </c>
       <c r="E49">
-        <v>715</v>
+        <v>540</v>
       </c>
       <c r="F49">
-        <v>929</v>
+        <v>764</v>
       </c>
       <c r="G49">
         <v>978</v>
@@ -2004,22 +2010,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.1144666510803342</v>
+        <v>-0.03770052414040692</v>
       </c>
       <c r="C50">
-        <v>-0.01210989363586434</v>
+        <v>-0.002601026754238678</v>
       </c>
       <c r="D50">
-        <v>0.04959729080781687</v>
+        <v>0.05061990068986227</v>
       </c>
       <c r="E50">
-        <v>1306</v>
+        <v>759</v>
       </c>
       <c r="F50">
-        <v>1301</v>
+        <v>545</v>
       </c>
       <c r="G50">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H50">
         <v>1249</v>
@@ -2033,19 +2039,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.156531751383272</v>
+        <v>-0.037612408018321</v>
       </c>
       <c r="C51">
-        <v>-0.01272500167735224</v>
+        <v>0.007535285119400381</v>
       </c>
       <c r="D51">
-        <v>0.0375372085817366</v>
+        <v>0.05063558396495213</v>
       </c>
       <c r="E51">
-        <v>850</v>
+        <v>670</v>
       </c>
       <c r="F51">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="G51">
         <v>800</v>
@@ -2062,25 +2068,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1879366903241881</v>
+        <v>-0.06612800862918999</v>
       </c>
       <c r="C52">
-        <v>-0.00456792065631817</v>
+        <v>-0.0006072694588921124</v>
       </c>
       <c r="D52">
-        <v>0.0464542369731013</v>
+        <v>0.04456882871483179</v>
       </c>
       <c r="E52">
-        <v>1851</v>
+        <v>637</v>
       </c>
       <c r="F52">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="G52">
         <v>995</v>
       </c>
       <c r="H52">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="I52" t="s">
         <v>55</v>
@@ -2091,25 +2097,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1592863915693979</v>
+        <v>-0.0809942996131332</v>
       </c>
       <c r="C53">
-        <v>0.001472945413549143</v>
+        <v>0.003351723959316821</v>
       </c>
       <c r="D53">
-        <v>0.0946451824566289</v>
+        <v>0.06260601494458734</v>
       </c>
       <c r="E53">
-        <v>2032</v>
+        <v>611</v>
       </c>
       <c r="F53">
-        <v>575</v>
+        <v>693</v>
       </c>
       <c r="G53">
         <v>1142</v>
       </c>
       <c r="H53">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="I53" t="s">
         <v>56</v>
@@ -2120,28 +2126,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.0500250329687576</v>
+        <v>0.1982579926730657</v>
       </c>
       <c r="C54">
-        <v>0.004726595427057445</v>
+        <v>0.00628858209343508</v>
       </c>
       <c r="D54">
-        <v>0.09489761890137906</v>
+        <v>0.1041538314994525</v>
       </c>
       <c r="E54">
-        <v>1815</v>
+        <v>556</v>
       </c>
       <c r="F54">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="G54">
-        <v>1102</v>
+        <v>973</v>
       </c>
       <c r="H54">
-        <v>1306</v>
-      </c>
-      <c r="I54" t="s">
-        <v>57</v>
+        <v>1436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2149,28 +2155,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.2241368073745843</v>
+        <v>-0.09696925015914404</v>
       </c>
       <c r="C55">
-        <v>-0.01836034712971668</v>
+        <v>-0.0002863403325866765</v>
       </c>
       <c r="D55">
-        <v>0.04091245064703838</v>
+        <v>0.1100657884578305</v>
       </c>
       <c r="E55">
-        <v>1734</v>
+        <v>671</v>
       </c>
       <c r="F55">
-        <v>873</v>
+        <v>633</v>
       </c>
       <c r="G55">
-        <v>845</v>
+        <v>1102</v>
       </c>
       <c r="H55">
-        <v>1563</v>
+        <v>1307</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2178,28 +2184,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1453903179885201</v>
+        <v>-0.01826339385463838</v>
       </c>
       <c r="C56">
-        <v>-0.003090855698935635</v>
+        <v>-0.006167334564040727</v>
       </c>
       <c r="D56">
-        <v>0.01088763376456498</v>
+        <v>0.05938847966350897</v>
       </c>
       <c r="E56">
-        <v>1164</v>
+        <v>617</v>
       </c>
       <c r="F56">
-        <v>1443</v>
+        <v>687</v>
       </c>
       <c r="G56">
-        <v>1392</v>
+        <v>845</v>
       </c>
       <c r="H56">
-        <v>1016</v>
-      </c>
-      <c r="J56" t="s">
-        <v>63</v>
+        <v>1564</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2207,25 +2213,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.2246512412418205</v>
+        <v>0.178578311466091</v>
       </c>
       <c r="C57">
-        <v>0.008853938603856193</v>
+        <v>-0.0001275473744098976</v>
       </c>
       <c r="D57">
-        <v>0.01982624599374888</v>
+        <v>0.01654872645815975</v>
       </c>
       <c r="E57">
-        <v>1052</v>
+        <v>629</v>
       </c>
       <c r="F57">
-        <v>1555</v>
+        <v>675</v>
       </c>
       <c r="G57">
-        <v>1311</v>
+        <v>1393</v>
       </c>
       <c r="H57">
-        <v>1097</v>
+        <v>1016</v>
       </c>
       <c r="J57" t="s">
         <v>64</v>
@@ -2236,25 +2242,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1893184911017838</v>
+        <v>0.1216357816824767</v>
       </c>
       <c r="C58">
-        <v>-0.004732873925984094</v>
+        <v>0.01442106087000616</v>
       </c>
       <c r="D58">
-        <v>0.05044306845115561</v>
+        <v>0.142621365248795</v>
       </c>
       <c r="E58">
-        <v>1155</v>
+        <v>682</v>
       </c>
       <c r="F58">
-        <v>1452</v>
+        <v>622</v>
       </c>
       <c r="G58">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="H58">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="J58" t="s">
         <v>65</v>
@@ -2265,28 +2271,86 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.2295351620501409</v>
+        <v>0.2175673055895437</v>
       </c>
       <c r="C59">
-        <v>0.01805383563289253</v>
+        <v>0.01091176250744286</v>
       </c>
       <c r="D59">
-        <v>0.02309566898337439</v>
+        <v>0.02645582957958477</v>
       </c>
       <c r="E59">
-        <v>1316</v>
+        <v>656</v>
       </c>
       <c r="F59">
-        <v>1291</v>
+        <v>648</v>
       </c>
       <c r="G59">
-        <v>1545</v>
+        <v>1312</v>
       </c>
       <c r="H59">
-        <v>863</v>
+        <v>1097</v>
       </c>
       <c r="J59" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.25186347737743</v>
+      </c>
+      <c r="C60">
+        <v>0.005770691267939387</v>
+      </c>
+      <c r="D60">
+        <v>0.0716226857256511</v>
+      </c>
+      <c r="E60">
+        <v>674</v>
+      </c>
+      <c r="F60">
+        <v>630</v>
+      </c>
+      <c r="G60">
+        <v>1322</v>
+      </c>
+      <c r="H60">
+        <v>1087</v>
+      </c>
+      <c r="J60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.03942242597478973</v>
+      </c>
+      <c r="C61">
+        <v>0.008131991361738589</v>
+      </c>
+      <c r="D61">
+        <v>0.04486156542760934</v>
+      </c>
+      <c r="E61">
+        <v>646</v>
+      </c>
+      <c r="F61">
+        <v>658</v>
+      </c>
+      <c r="G61">
+        <v>1546</v>
+      </c>
+      <c r="H61">
+        <v>863</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
